--- a/ProjectCore/ProjectData/OutputExcel.xlsx
+++ b/ProjectCore/ProjectData/OutputExcel.xlsx
@@ -20,172 +20,172 @@
     <t>Godzina/Dzień</t>
   </si>
   <si>
+    <t xml:space="preserve">Algebra / 12k1 </t>
+  </si>
+  <si>
+    <t>Technika cyfrowa / 11k1</t>
+  </si>
+  <si>
+    <t>Programowanie obiektowe / 11k2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fizyka 1 / 13k2 </t>
+  </si>
+  <si>
+    <t>Algorytmy i struktury danych / 11k1</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metody sztucznej inteligencji / 12k1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podstawy baz danych / 13k1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kompilatory / 13k2 </t>
+  </si>
+  <si>
+    <t>Systemy wbudowane / 11k2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metody sztucznej inteligencji / 13k1 </t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analiza matematyczna 1 / 12k2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sieci komputerowe / 12k2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektowanie systemów informatycznych / 12k2 </t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logika matematyczna w informatyce / 13k2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wprowadzenie do systemu UNIX / 13k2 </t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Równania różniczkowe i różnicowe / 13k2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Złożone systemy cyfrowe / 12k1 </t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przedmiot obieralny 1 / 12k2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fizyka 1 / 12k2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optymalizacja kodu na różne architektury / 13k1 </t>
+  </si>
+  <si>
+    <t>Sieci komputerowe / 11k1</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przedmiot obieralny 2 / 12k1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technologie obiektowe 2 / 12k2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technika cyfrowa / 12k1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wychowanie fizyczne 3 / 13k2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorytmy i struktury danych / 12k1 </t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Metody sztucznej inteligencji / 11k1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technika mikroprocesorowa / 13k2 </t>
+  </si>
+  <si>
+    <t>Programowanie imperatywne / 11k2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wstęp do grafiki komputerowej / 12k1 </t>
+  </si>
+  <si>
     <t>Fizyka 2 / 11k1</t>
   </si>
   <si>
+    <t xml:space="preserve">Komunikacja i techniki zarządzania / 13k2 </t>
+  </si>
+  <si>
     <t xml:space="preserve">Sieci komputerowe / 12k1 </t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wstęp do grafiki komputerowej / 12k1 </t>
+    <t xml:space="preserve">Projekt inżynierski / 12k1 </t>
+  </si>
+  <si>
+    <t>300</t>
   </si>
   <si>
     <t>Przedmiot obieralny / 11k2</t>
   </si>
   <si>
-    <t xml:space="preserve">Fizyka 1 / 12k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projekt inżynierski / 12k1 </t>
-  </si>
-  <si>
-    <t>Programowanie imperatywne / 11k2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kompilatory / 13k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metody sztucznej inteligencji / 12k1 </t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>Sieci komputerowe / 11k1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sieci komputerowe / 12k2 </t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wychowanie fizyczne 3 / 13k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metody sztucznej inteligencji / 13k1 </t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektowanie systemów informatycznych / 12k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przedmiot obieralny 2 / 12k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logika matematyczna w informatyce / 13k2 </t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>Technika cyfrowa / 11k1</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>Metody sztucznej inteligencji / 11k1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wprowadzenie do systemu UNIX / 13k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technologie obiektowe 2 / 12k2 </t>
+    <t xml:space="preserve">Bazy danych / 13k1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programowanie funkcyjne / 12k1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komunikacja i techniki zarządzania / 12k1 </t>
+  </si>
+  <si>
+    <t>Inżynieria oprogramowania / 11k2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analiza matematyczna 2 / 13k1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geometria obliczeniowa / 14k1 </t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne 2 / 11k2</t>
   </si>
   <si>
     <t xml:space="preserve">Geometria obliczeniowa / 13k1 </t>
   </si>
   <si>
+    <t>Statystyka matematyczna / 11k1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wprowadzenie do systemu UNIX / 13k1 </t>
   </si>
   <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algebra / 12k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bazy danych / 13k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorytmy i struktury danych / 12k1 </t>
-  </si>
-  <si>
-    <t>Programowanie obiektowe / 11k2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geometria obliczeniowa / 14k1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Ochrona własności intelektualnej / 14k1 </t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optymalizacja kodu na różne architektury / 13k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analiza matematyczna 1 / 12k2 </t>
-  </si>
-  <si>
-    <t>Algorytmy i struktury danych / 11k1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Równania różniczkowe i różnicowe / 13k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podstawy baz danych / 13k1 </t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>Statystyka matematyczna / 11k1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fizyka 1 / 13k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Komunikacja i techniki zarządzania / 13k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programowanie funkcyjne / 12k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technika cyfrowa / 12k1 </t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technika mikroprocesorowa / 13k2 </t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne 2 / 11k2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przedmiot obieralny 1 / 12k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Komunikacja i techniki zarządzania / 12k1 </t>
-  </si>
-  <si>
-    <t>Inżynieria oprogramowania / 11k2</t>
-  </si>
-  <si>
-    <t>Systemy wbudowane / 11k2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Złożone systemy cyfrowe / 12k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analiza matematyczna 2 / 13k1 </t>
   </si>
 </sst>
 </file>
@@ -239,10 +239,10 @@
   <cols>
     <col min="1" max="1" width="14.2767210006714" customWidth="1"/>
     <col min="2" max="2" width="44.6003723144531" customWidth="1"/>
-    <col min="3" max="3" width="44.6003723144531" customWidth="1"/>
-    <col min="4" max="4" width="38.033317565918" customWidth="1"/>
+    <col min="3" max="3" width="36.5560150146484" customWidth="1"/>
+    <col min="4" max="4" width="44.6003723144531" customWidth="1"/>
     <col min="5" max="5" width="36.2634201049805" customWidth="1"/>
-    <col min="6" max="6" width="32.9589157104492" customWidth="1"/>
+    <col min="6" max="6" width="37.818473815918" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -274,26 +274,29 @@
       <c r="A3" s="0">
         <v>7</v>
       </c>
+      <c r="B3" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
         <v>8</v>
       </c>
+      <c r="B4" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
         <v>9</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>2</v>
+      <c r="E6" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -305,27 +308,27 @@
       <c r="A8" s="0">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
         <v>13</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
         <v>14</v>
       </c>
+      <c r="F10" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
         <v>15</v>
       </c>
+      <c r="C11" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
@@ -341,10 +344,13 @@
       <c r="A14" s="0">
         <v>18</v>
       </c>
+      <c r="C14" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -371,19 +377,25 @@
       <c r="A18" s="0">
         <v>7</v>
       </c>
+      <c r="D18" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
         <v>8</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>5</v>
+      <c r="C19" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
         <v>9</v>
       </c>
+      <c r="C20" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
@@ -394,6 +406,9 @@
       <c r="A22" s="0">
         <v>11</v>
       </c>
+      <c r="D22" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
@@ -404,41 +419,23 @@
       <c r="A24" s="0">
         <v>13</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
         <v>14</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
         <v>15</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
         <v>16</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -446,6 +443,9 @@
         <v>17</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>11</v>
       </c>
     </row>
@@ -453,10 +453,13 @@
       <c r="A29" s="0">
         <v>18</v>
       </c>
+      <c r="B29" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
@@ -493,38 +496,38 @@
       <c r="A35" s="0">
         <v>9</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
         <v>10</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>13</v>
+      <c r="D36" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
         <v>11</v>
       </c>
+      <c r="D37" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
         <v>12</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
         <v>13</v>
       </c>
-      <c r="F39" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
@@ -535,6 +538,9 @@
       <c r="A41" s="0">
         <v>15</v>
       </c>
+      <c r="D41" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
@@ -553,7 +559,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
@@ -580,9 +586,6 @@
       <c r="A48" s="0">
         <v>7</v>
       </c>
-      <c r="C48" s="0" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
@@ -608,17 +611,11 @@
       <c r="A53" s="0">
         <v>12</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
         <v>13</v>
       </c>
-      <c r="E54" s="0" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
@@ -629,11 +626,20 @@
       <c r="A56" s="0">
         <v>15</v>
       </c>
+      <c r="D56" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
         <v>16</v>
       </c>
+      <c r="D57" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
@@ -647,7 +653,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -674,9 +680,6 @@
       <c r="A63" s="0">
         <v>7</v>
       </c>
-      <c r="B63" s="0" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
@@ -687,33 +690,24 @@
       <c r="A65" s="0">
         <v>9</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
         <v>10</v>
       </c>
-      <c r="C66" s="0" t="s">
-        <v>20</v>
+      <c r="D66" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
         <v>11</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
         <v>12</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
@@ -724,11 +718,17 @@
       <c r="A70" s="0">
         <v>14</v>
       </c>
+      <c r="E70" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
         <v>15</v>
       </c>
+      <c r="E71" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
@@ -747,7 +747,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
@@ -814,9 +814,6 @@
       <c r="A86" s="0">
         <v>15</v>
       </c>
-      <c r="F86" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
@@ -867,20 +864,11 @@
       <c r="A94" s="0">
         <v>8</v>
       </c>
-      <c r="F94" s="0" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
         <v>9</v>
       </c>
-      <c r="D95" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E95" s="0" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
@@ -891,16 +879,16 @@
       <c r="A97" s="0">
         <v>11</v>
       </c>
-      <c r="C97" s="0" t="s">
-        <v>28</v>
+      <c r="E97" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
         <v>12</v>
       </c>
-      <c r="C98" s="0" t="s">
-        <v>28</v>
+      <c r="E98" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="99">
@@ -912,36 +900,45 @@
       <c r="A100" s="0">
         <v>14</v>
       </c>
+      <c r="E100" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
         <v>15</v>
       </c>
+      <c r="E101" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
         <v>16</v>
       </c>
+      <c r="B102" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
         <v>17</v>
       </c>
-      <c r="E103" s="0" t="s">
-        <v>29</v>
+      <c r="F103" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
         <v>18</v>
       </c>
-      <c r="E104" s="0" t="s">
-        <v>29</v>
+      <c r="F104" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
@@ -968,56 +965,44 @@
       <c r="A108" s="0">
         <v>7</v>
       </c>
-      <c r="B108" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
         <v>8</v>
       </c>
-      <c r="B109" s="0" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
         <v>9</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
         <v>10</v>
       </c>
-      <c r="D111" s="0" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
         <v>11</v>
       </c>
-      <c r="F112" s="0" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
         <v>12</v>
       </c>
+      <c r="E113" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
         <v>13</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="115">
@@ -1029,11 +1014,20 @@
       <c r="A116" s="0">
         <v>15</v>
       </c>
+      <c r="B116" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
         <v>16</v>
       </c>
+      <c r="F117" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
@@ -1044,10 +1038,16 @@
       <c r="A119" s="0">
         <v>18</v>
       </c>
+      <c r="B119" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122">
@@ -1074,92 +1074,101 @@
       <c r="A123" s="0">
         <v>7</v>
       </c>
+      <c r="C123" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
         <v>8</v>
       </c>
-      <c r="C124" s="0" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
         <v>9</v>
       </c>
+      <c r="F125" s="0" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
         <v>10</v>
       </c>
-      <c r="E126" s="0" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
         <v>11</v>
       </c>
-      <c r="D127" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E127" s="0" t="s">
-        <v>39</v>
+      <c r="F127" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
         <v>12</v>
       </c>
-      <c r="D128" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E128" s="0" t="s">
-        <v>27</v>
+      <c r="C128" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
         <v>13</v>
       </c>
-      <c r="E129" s="0" t="s">
-        <v>27</v>
+      <c r="C129" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
         <v>14</v>
       </c>
-      <c r="C130" s="0" t="s">
-        <v>42</v>
+      <c r="B130" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
         <v>15</v>
       </c>
-      <c r="C131" s="0" t="s">
-        <v>42</v>
+      <c r="D131" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
         <v>16</v>
       </c>
+      <c r="F132" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
         <v>17</v>
       </c>
+      <c r="F133" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
         <v>18</v>
       </c>
+      <c r="C134" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F134" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="137">
@@ -1186,34 +1195,43 @@
       <c r="A138" s="0">
         <v>7</v>
       </c>
+      <c r="D138" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
         <v>8</v>
       </c>
-      <c r="C139" s="0" t="s">
-        <v>19</v>
+      <c r="D139" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
         <v>9</v>
       </c>
+      <c r="F140" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
         <v>10</v>
       </c>
+      <c r="D141" s="0" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
         <v>11</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143">
@@ -1221,23 +1239,20 @@
         <v>12</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
         <v>13</v>
       </c>
-      <c r="B144" s="0" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
         <v>14</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="146">
@@ -1245,10 +1260,7 @@
         <v>15</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D146" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147">
@@ -1256,7 +1268,10 @@
         <v>16</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="F147" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="148">
@@ -1271,7 +1286,7 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152">
@@ -1298,23 +1313,11 @@
       <c r="A153" s="0">
         <v>7</v>
       </c>
-      <c r="E153" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F153" s="0" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
         <v>8</v>
       </c>
-      <c r="C154" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E154" s="0" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
@@ -1325,77 +1328,74 @@
       <c r="A156" s="0">
         <v>10</v>
       </c>
-      <c r="B156" s="0" t="s">
-        <v>52</v>
+      <c r="E156" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
         <v>11</v>
       </c>
-      <c r="B157" s="0" t="s">
-        <v>52</v>
+      <c r="D157" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E157" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
         <v>12</v>
       </c>
+      <c r="B158" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
         <v>13</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D159" s="0" t="s">
         <v>54</v>
+      </c>
+      <c r="F159" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
         <v>14</v>
       </c>
-      <c r="B160" s="0" t="s">
-        <v>53</v>
+      <c r="F160" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
         <v>15</v>
       </c>
-      <c r="D161" s="0" t="s">
-        <v>55</v>
+      <c r="E161" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
         <v>16</v>
       </c>
-      <c r="D162" s="0" t="s">
-        <v>55</v>
+      <c r="E162" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
         <v>17</v>
       </c>
-      <c r="E163" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F163" s="0" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
         <v>18</v>
       </c>
-      <c r="E164" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F164" s="0" t="s">
+      <c r="C164" s="0" t="s">
         <v>57</v>
       </c>
     </row>

--- a/ProjectCore/ProjectData/OutputExcel.xlsx
+++ b/ProjectCore/ProjectData/OutputExcel.xlsx
@@ -20,172 +20,172 @@
     <t>Godzina/Dzień</t>
   </si>
   <si>
+    <t xml:space="preserve">Programowanie funkcyjne / 12k1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektowanie systemów informatycznych / 12k2 </t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Technika cyfrowa / 11k1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podstawy baz danych / 13k1 </t>
+  </si>
+  <si>
+    <t>Programowanie imperatywne / 11k2</t>
+  </si>
+  <si>
+    <t>Przedmiot obieralny / 11k2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wprowadzenie do systemu UNIX / 13k1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorytmy i struktury danych / 12k1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komunikacja i techniki zarządzania / 13k2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przedmiot obieralny 2 / 12k1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fizyka 1 / 12k2 </t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geometria obliczeniowa / 13k1 </t>
+  </si>
+  <si>
+    <t>Algorytmy i struktury danych / 11k1</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sieci komputerowe / 12k2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technologie obiektowe 2 / 12k2 </t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geometria obliczeniowa / 14k1 </t>
+  </si>
+  <si>
+    <t>Fizyka 2 / 11k1</t>
+  </si>
+  <si>
+    <t>Statystyka matematyczna / 11k1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ochrona własności intelektualnej / 14k1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sieci komputerowe / 12k1 </t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analiza matematyczna 1 / 12k2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Równania różniczkowe i różnicowe / 13k2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wprowadzenie do systemu UNIX / 13k2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logika matematyczna w informatyce / 13k2 </t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technika mikroprocesorowa / 13k2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analiza matematyczna 2 / 13k1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optymalizacja kodu na różne architektury / 13k1 </t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metody sztucznej inteligencji / 13k1 </t>
+  </si>
+  <si>
     <t xml:space="preserve">Algebra / 12k1 </t>
   </si>
   <si>
-    <t>Technika cyfrowa / 11k1</t>
+    <t xml:space="preserve">Bazy danych / 13k1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fizyka 1 / 13k2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metody sztucznej inteligencji / 12k1 </t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>Metody sztucznej inteligencji / 11k1</t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne 2 / 11k2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technika cyfrowa / 12k1 </t>
   </si>
   <si>
     <t>Programowanie obiektowe / 11k2</t>
   </si>
   <si>
-    <t xml:space="preserve">Fizyka 1 / 13k2 </t>
-  </si>
-  <si>
-    <t>Algorytmy i struktury danych / 11k1</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metody sztucznej inteligencji / 12k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podstawy baz danych / 13k1 </t>
+    <t>300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wychowanie fizyczne 3 / 13k2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Złożone systemy cyfrowe / 12k1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przedmiot obieralny 1 / 12k2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komunikacja i techniki zarządzania / 12k1 </t>
+  </si>
+  <si>
+    <t>Inżynieria oprogramowania / 11k2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projekt inżynierski / 12k1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wstęp do grafiki komputerowej / 12k1 </t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>Sieci komputerowe / 11k1</t>
   </si>
   <si>
     <t xml:space="preserve">Kompilatory / 13k2 </t>
   </si>
   <si>
     <t>Systemy wbudowane / 11k2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metody sztucznej inteligencji / 13k1 </t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analiza matematyczna 1 / 12k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sieci komputerowe / 12k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektowanie systemów informatycznych / 12k2 </t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logika matematyczna w informatyce / 13k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wprowadzenie do systemu UNIX / 13k2 </t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Równania różniczkowe i różnicowe / 13k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Złożone systemy cyfrowe / 12k1 </t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przedmiot obieralny 1 / 12k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fizyka 1 / 12k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optymalizacja kodu na różne architektury / 13k1 </t>
-  </si>
-  <si>
-    <t>Sieci komputerowe / 11k1</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przedmiot obieralny 2 / 12k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technologie obiektowe 2 / 12k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technika cyfrowa / 12k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wychowanie fizyczne 3 / 13k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorytmy i struktury danych / 12k1 </t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>Metody sztucznej inteligencji / 11k1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technika mikroprocesorowa / 13k2 </t>
-  </si>
-  <si>
-    <t>Programowanie imperatywne / 11k2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wstęp do grafiki komputerowej / 12k1 </t>
-  </si>
-  <si>
-    <t>Fizyka 2 / 11k1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Komunikacja i techniki zarządzania / 13k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sieci komputerowe / 12k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projekt inżynierski / 12k1 </t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>Przedmiot obieralny / 11k2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bazy danych / 13k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programowanie funkcyjne / 12k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Komunikacja i techniki zarządzania / 12k1 </t>
-  </si>
-  <si>
-    <t>Inżynieria oprogramowania / 11k2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analiza matematyczna 2 / 13k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geometria obliczeniowa / 14k1 </t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne 2 / 11k2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geometria obliczeniowa / 13k1 </t>
-  </si>
-  <si>
-    <t>Statystyka matematyczna / 11k1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wprowadzenie do systemu UNIX / 13k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ochrona własności intelektualnej / 14k1 </t>
   </si>
 </sst>
 </file>
@@ -238,11 +238,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.2767210006714" customWidth="1"/>
-    <col min="2" max="2" width="44.6003723144531" customWidth="1"/>
-    <col min="3" max="3" width="36.5560150146484" customWidth="1"/>
-    <col min="4" max="4" width="44.6003723144531" customWidth="1"/>
-    <col min="5" max="5" width="36.2634201049805" customWidth="1"/>
-    <col min="6" max="6" width="37.818473815918" customWidth="1"/>
+    <col min="2" max="2" width="43.9885787963867" customWidth="1"/>
+    <col min="3" max="3" width="44.6003723144531" customWidth="1"/>
+    <col min="4" max="4" width="29.5592708587646" customWidth="1"/>
+    <col min="5" max="5" width="39.627254486084" customWidth="1"/>
+    <col min="6" max="6" width="36.2634201049805" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -274,15 +274,12 @@
       <c r="A3" s="0">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -290,14 +287,17 @@
       <c r="A5" s="0">
         <v>9</v>
       </c>
+      <c r="C5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
         <v>10</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
@@ -318,17 +318,11 @@
       <c r="A10" s="0">
         <v>14</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
         <v>15</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
@@ -344,13 +338,10 @@
       <c r="A14" s="0">
         <v>18</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -377,53 +368,74 @@
       <c r="A18" s="0">
         <v>7</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>8</v>
+      <c r="B18" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
         <v>8</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>9</v>
+      <c r="E19" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
         <v>9</v>
       </c>
+      <c r="B20" s="0" t="s">
+        <v>7</v>
+      </c>
       <c r="C20" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
         <v>10</v>
       </c>
+      <c r="C21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
         <v>11</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>10</v>
+      <c r="F22" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
         <v>12</v>
       </c>
+      <c r="C23" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
         <v>13</v>
       </c>
+      <c r="C24" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
         <v>14</v>
       </c>
+      <c r="B25" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
@@ -434,32 +446,32 @@
       <c r="A27" s="0">
         <v>16</v>
       </c>
-      <c r="F27" s="0" t="s">
-        <v>11</v>
+      <c r="C27" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
         <v>17</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="0" t="s">
-        <v>11</v>
+      <c r="E28" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
         <v>18</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>12</v>
+      <c r="E29" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -491,38 +503,35 @@
       <c r="A34" s="0">
         <v>8</v>
       </c>
+      <c r="F34" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
         <v>9</v>
       </c>
+      <c r="B35" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
         <v>10</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
         <v>11</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
         <v>12</v>
       </c>
-      <c r="F38" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
@@ -538,9 +547,6 @@
       <c r="A41" s="0">
         <v>15</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
@@ -586,21 +592,33 @@
       <c r="A48" s="0">
         <v>7</v>
       </c>
+      <c r="D48" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
         <v>8</v>
       </c>
+      <c r="D49" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
         <v>9</v>
       </c>
+      <c r="D50" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
         <v>10</v>
       </c>
+      <c r="D51" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
@@ -626,20 +644,11 @@
       <c r="A56" s="0">
         <v>15</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
         <v>16</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
@@ -685,6 +694,9 @@
       <c r="A64" s="0">
         <v>8</v>
       </c>
+      <c r="C64" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
@@ -696,39 +708,51 @@
         <v>10</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
         <v>11</v>
       </c>
+      <c r="D67" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
         <v>12</v>
       </c>
+      <c r="B68" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
         <v>13</v>
       </c>
+      <c r="B69" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
         <v>14</v>
       </c>
-      <c r="E70" s="0" t="s">
-        <v>22</v>
+      <c r="D70" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
         <v>15</v>
       </c>
-      <c r="E71" s="0" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
@@ -747,7 +771,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
@@ -784,11 +808,20 @@
       <c r="A80" s="0">
         <v>9</v>
       </c>
+      <c r="F80" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
         <v>10</v>
       </c>
+      <c r="B81" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
@@ -804,6 +837,9 @@
       <c r="A84" s="0">
         <v>13</v>
       </c>
+      <c r="E84" s="0" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
@@ -814,11 +850,17 @@
       <c r="A86" s="0">
         <v>15</v>
       </c>
+      <c r="E86" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
         <v>16</v>
       </c>
+      <c r="E87" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
@@ -832,7 +874,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
@@ -874,13 +916,16 @@
       <c r="A96" s="0">
         <v>10</v>
       </c>
+      <c r="E96" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
         <v>11</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="98">
@@ -888,57 +933,45 @@
         <v>12</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
         <v>13</v>
       </c>
+      <c r="B99" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
         <v>14</v>
       </c>
-      <c r="E100" s="0" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
         <v>15</v>
       </c>
-      <c r="E101" s="0" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
         <v>16</v>
       </c>
-      <c r="B102" s="0" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
         <v>17</v>
       </c>
-      <c r="F103" s="0" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
         <v>18</v>
       </c>
-      <c r="F104" s="0" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107">
@@ -975,11 +1008,17 @@
       <c r="A110" s="0">
         <v>9</v>
       </c>
+      <c r="C110" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
         <v>10</v>
       </c>
+      <c r="C111" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
@@ -990,35 +1029,29 @@
       <c r="A113" s="0">
         <v>12</v>
       </c>
-      <c r="E113" s="0" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
         <v>13</v>
       </c>
-      <c r="B114" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E114" s="0" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
         <v>14</v>
       </c>
+      <c r="C115" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
         <v>15</v>
       </c>
-      <c r="B116" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F116" s="0" t="s">
-        <v>32</v>
+      <c r="C116" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="117">
@@ -1026,7 +1059,7 @@
         <v>16</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118">
@@ -1038,16 +1071,13 @@
       <c r="A119" s="0">
         <v>18</v>
       </c>
-      <c r="B119" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D119" s="0" t="s">
-        <v>34</v>
+      <c r="F119" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122">
@@ -1075,100 +1105,82 @@
         <v>7</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
         <v>8</v>
       </c>
+      <c r="B124" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
         <v>9</v>
       </c>
-      <c r="F125" s="0" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
         <v>10</v>
       </c>
+      <c r="C126" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
         <v>11</v>
       </c>
-      <c r="F127" s="0" t="s">
-        <v>38</v>
+      <c r="C127" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
         <v>12</v>
       </c>
-      <c r="C128" s="0" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
         <v>13</v>
       </c>
-      <c r="C129" s="0" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
         <v>14</v>
       </c>
-      <c r="B130" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D130" s="0" t="s">
-        <v>40</v>
+      <c r="F130" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
         <v>15</v>
       </c>
-      <c r="D131" s="0" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
         <v>16</v>
       </c>
-      <c r="F132" s="0" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
         <v>17</v>
       </c>
-      <c r="F133" s="0" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
         <v>18</v>
       </c>
-      <c r="C134" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F134" s="0" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137">
@@ -1195,24 +1207,21 @@
       <c r="A138" s="0">
         <v>7</v>
       </c>
-      <c r="D138" s="0" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
         <v>8</v>
       </c>
-      <c r="D139" s="0" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
         <v>9</v>
       </c>
-      <c r="F140" s="0" t="s">
-        <v>46</v>
+      <c r="B140" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="141">
@@ -1220,73 +1229,79 @@
         <v>10</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
         <v>11</v>
       </c>
-      <c r="B142" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D142" s="0" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
         <v>12</v>
       </c>
-      <c r="B143" s="0" t="s">
-        <v>48</v>
+      <c r="D143" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
         <v>13</v>
       </c>
+      <c r="D144" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E144" s="0" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
         <v>14</v>
       </c>
-      <c r="D145" s="0" t="s">
-        <v>49</v>
+      <c r="B145" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E145" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F145" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
         <v>15</v>
       </c>
-      <c r="C146" s="0" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
         <v>16</v>
       </c>
-      <c r="C147" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="F147" s="0" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
         <v>17</v>
       </c>
+      <c r="B148" s="0" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
         <v>18</v>
       </c>
+      <c r="C149" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="152">
@@ -1318,73 +1333,61 @@
       <c r="A154" s="0">
         <v>8</v>
       </c>
+      <c r="E154" s="0" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
         <v>9</v>
       </c>
+      <c r="E155" s="0" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
         <v>10</v>
       </c>
-      <c r="E156" s="0" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
         <v>11</v>
       </c>
-      <c r="D157" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E157" s="0" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
         <v>12</v>
       </c>
-      <c r="B158" s="0" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
         <v>13</v>
       </c>
-      <c r="B159" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F159" s="0" t="s">
-        <v>55</v>
+      <c r="C159" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
         <v>14</v>
       </c>
-      <c r="F160" s="0" t="s">
-        <v>55</v>
+      <c r="B160" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
         <v>15</v>
       </c>
-      <c r="E161" s="0" t="s">
-        <v>56</v>
+      <c r="B161" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
         <v>16</v>
       </c>
-      <c r="E162" s="0" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
@@ -1394,9 +1397,6 @@
     <row r="164">
       <c r="A164" s="0">
         <v>18</v>
-      </c>
-      <c r="C164" s="0" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectCore/ProjectData/OutputExcel.xlsx
+++ b/ProjectCore/ProjectData/OutputExcel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>100</t>
   </si>
@@ -20,172 +20,181 @@
     <t>Godzina/Dzień</t>
   </si>
   <si>
-    <t xml:space="preserve">Programowanie funkcyjne / 12k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektowanie systemów informatycznych / 12k2 </t>
+    <t xml:space="preserve">Metody sztucznej inteligencji / 13k1  14 Piedad Meggs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorytmy i struktury danych / 12k1  6 Glendora Sugar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geometria obliczeniowa / 14k1  13 Antonia Wayt  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazy danych / 13k1  11 Raina Fisk  </t>
+  </si>
+  <si>
+    <t>Technika cyfrowa / 11k1 3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Złożone systemy cyfrowe / 12k1  9 Genevie Fines  </t>
   </si>
   <si>
     <t>101</t>
   </si>
   <si>
-    <t>Technika cyfrowa / 11k1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podstawy baz danych / 13k1 </t>
-  </si>
-  <si>
-    <t>Programowanie imperatywne / 11k2</t>
-  </si>
-  <si>
-    <t>Przedmiot obieralny / 11k2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wprowadzenie do systemu UNIX / 13k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorytmy i struktury danych / 12k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Komunikacja i techniki zarządzania / 13k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przedmiot obieralny 2 / 12k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fizyka 1 / 12k2 </t>
+    <t>Sieci komputerowe / 11k1 4 Harlan Kilgore  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programowanie funkcyjne / 12k1  14 Piedad Meggs  </t>
+  </si>
+  <si>
+    <t>Programowanie obiektowe / 11k2 10 Kaleigh Baltazar  </t>
+  </si>
+  <si>
+    <t>Inżynieria oprogramowania / 11k2 6 Glendora Sugar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podstawy baz danych / 13k1  5 Kira Farrington  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projekt inżynierski / 12k1  5 Kira Farrington  </t>
   </si>
   <si>
     <t>102</t>
   </si>
   <si>
-    <t xml:space="preserve">Geometria obliczeniowa / 13k1 </t>
-  </si>
-  <si>
-    <t>Algorytmy i struktury danych / 11k1</t>
+    <t xml:space="preserve">Sieci komputerowe / 12k2  9 Genevie Fines  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wychowanie fizyczne 3 / 13k2  12 Richelle Pittenger  </t>
+  </si>
+  <si>
+    <t>Fizyka 2 / 11k1 5 Kira Farrington  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorytmy i struktury danych / 12k1  4 Harlan Kilgore  </t>
   </si>
   <si>
     <t>103</t>
   </si>
   <si>
-    <t xml:space="preserve">Sieci komputerowe / 12k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technologie obiektowe 2 / 12k2 </t>
+    <t>Programowanie imperatywne / 11k2 4 Harlan Kilgore  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kompilatory / 13k2  2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komunikacja i techniki zarządzania / 13k2  5 Kira Farrington  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fizyka 1 / 12k2  10 Kaleigh Baltazar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komunikacja i techniki zarządzania / 12k1  2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wprowadzenie do systemu UNIX / 13k1  6 Glendora Sugar  </t>
+  </si>
+  <si>
+    <t>Statystyka matematyczna / 11k1 8 Michale Lehoux  </t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
-    <t xml:space="preserve">Geometria obliczeniowa / 14k1 </t>
-  </si>
-  <si>
-    <t>Fizyka 2 / 11k1</t>
-  </si>
-  <si>
-    <t>Statystyka matematyczna / 11k1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ochrona własności intelektualnej / 14k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sieci komputerowe / 12k1 </t>
+    <t xml:space="preserve">Technologie obiektowe 2 / 12k2  7 Drusilla Chinn  </t>
+  </si>
+  <si>
+    <t>Metody sztucznej inteligencji / 11k1 5 Kira Farrington  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przedmiot obieralny 1 / 12k2  5 Kira Farrington  </t>
   </si>
   <si>
     <t>201</t>
   </si>
   <si>
-    <t xml:space="preserve">Analiza matematyczna 1 / 12k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Równania różniczkowe i różnicowe / 13k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wprowadzenie do systemu UNIX / 13k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logika matematyczna w informatyce / 13k2 </t>
+    <t xml:space="preserve">Przedmiot obieralny 2 / 12k1  12 Richelle Pittenger  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metody sztucznej inteligencji / 12k1  1 Irene Berends  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technika cyfrowa / 12k1  8 Michale Lehoux  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technika mikroprocesorowa / 13k2  14 Piedad Meggs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wstęp do grafiki komputerowej / 12k1  11 Raina Fisk  </t>
   </si>
   <si>
     <t>202</t>
   </si>
   <si>
-    <t xml:space="preserve">Technika mikroprocesorowa / 13k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analiza matematyczna 2 / 13k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optymalizacja kodu na różne architektury / 13k1 </t>
+    <t xml:space="preserve">Projektowanie systemów informatycznych / 12k2  9 Genevie Fines  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Równania różniczkowe i różnicowe / 13k2  9 Genevie Fines  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wprowadzenie do systemu UNIX / 13k2  10 Kaleigh Baltazar  </t>
   </si>
   <si>
     <t>203</t>
   </si>
   <si>
-    <t xml:space="preserve">Metody sztucznej inteligencji / 13k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algebra / 12k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bazy danych / 13k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fizyka 1 / 13k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metody sztucznej inteligencji / 12k1 </t>
+    <t xml:space="preserve">Projektowanie systemów informatycznych / 12k2  1 Irene Berends  </t>
+  </si>
+  <si>
+    <t>Systemy wbudowane / 11k2 9 Genevie Fines  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analiza matematyczna 1 / 12k2  12 Richelle Pittenger  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sieci komputerowe / 12k1  7 Drusilla Chinn  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technologie obiektowe 2 / 12k2  3 Ella Cutlip  </t>
   </si>
   <si>
     <t>204</t>
   </si>
   <si>
-    <t>Metody sztucznej inteligencji / 11k1</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne 2 / 11k2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technika cyfrowa / 12k1 </t>
-  </si>
-  <si>
-    <t>Programowanie obiektowe / 11k2</t>
+    <t xml:space="preserve">Optymalizacja kodu na różne architektury / 13k1  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algebra / 12k1  11 Raina Fisk  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ochrona własności intelektualnej / 14k1  6 Glendora Sugar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logika matematyczna w informatyce / 13k2  12 Richelle Pittenger  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geometria obliczeniowa / 13k1  7 Drusilla Chinn  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analiza matematyczna 2 / 13k1  1 Irene Berends  </t>
   </si>
   <si>
     <t>300</t>
   </si>
   <si>
-    <t xml:space="preserve">Wychowanie fizyczne 3 / 13k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Złożone systemy cyfrowe / 12k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przedmiot obieralny 1 / 12k2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Komunikacja i techniki zarządzania / 12k1 </t>
-  </si>
-  <si>
-    <t>Inżynieria oprogramowania / 11k2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projekt inżynierski / 12k1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wstęp do grafiki komputerowej / 12k1 </t>
+    <t>Przedmiot obieralny / 11k2 13 Antonia Wayt  </t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne 2 / 11k2 6 Glendora Sugar  </t>
   </si>
   <si>
     <t>301</t>
   </si>
   <si>
-    <t>Sieci komputerowe / 11k1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kompilatory / 13k2 </t>
-  </si>
-  <si>
-    <t>Systemy wbudowane / 11k2</t>
+    <t xml:space="preserve">Fizyka 1 / 13k2  8 Michale Lehoux  </t>
+  </si>
+  <si>
+    <t>Algorytmy i struktury danych / 11k1 13 Antonia Wayt  </t>
   </si>
 </sst>
 </file>
@@ -238,11 +247,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.2767210006714" customWidth="1"/>
-    <col min="2" max="2" width="43.9885787963867" customWidth="1"/>
-    <col min="3" max="3" width="44.6003723144531" customWidth="1"/>
-    <col min="4" max="4" width="29.5592708587646" customWidth="1"/>
-    <col min="5" max="5" width="39.627254486084" customWidth="1"/>
-    <col min="6" max="6" width="36.2634201049805" customWidth="1"/>
+    <col min="2" max="2" width="52.8053588867188" customWidth="1"/>
+    <col min="3" max="3" width="59.3724136352539" customWidth="1"/>
+    <col min="4" max="4" width="59.4082221984863" customWidth="1"/>
+    <col min="5" max="5" width="55.4949951171875" customWidth="1"/>
+    <col min="6" max="6" width="58.7248153686523" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -279,18 +288,18 @@
       <c r="A4" s="0">
         <v>8</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>2</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>2</v>
       </c>
     </row>
@@ -298,11 +307,17 @@
       <c r="A6" s="0">
         <v>10</v>
       </c>
+      <c r="D6" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
         <v>11</v>
       </c>
+      <c r="D7" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -323,6 +338,9 @@
       <c r="A11" s="0">
         <v>15</v>
       </c>
+      <c r="E11" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
@@ -333,15 +351,21 @@
       <c r="A13" s="0">
         <v>17</v>
       </c>
+      <c r="B13" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
         <v>18</v>
       </c>
+      <c r="B14" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -368,74 +392,68 @@
       <c r="A18" s="0">
         <v>7</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>5</v>
+      <c r="F18" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
         <v>8</v>
       </c>
+      <c r="D19" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="E19" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
         <v>9</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>6</v>
+      <c r="D20" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
         <v>10</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>8</v>
-      </c>
       <c r="F21" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
         <v>11</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>9</v>
+      <c r="E22" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
         <v>12</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>10</v>
+      <c r="B23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
         <v>13</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
         <v>14</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
@@ -446,32 +464,20 @@
       <c r="A27" s="0">
         <v>16</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
         <v>17</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
         <v>18</v>
       </c>
-      <c r="E29" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -503,30 +509,30 @@
       <c r="A34" s="0">
         <v>8</v>
       </c>
-      <c r="F34" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
         <v>9</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
         <v>10</v>
       </c>
+      <c r="C36" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
         <v>11</v>
       </c>
+      <c r="C37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
@@ -552,11 +558,23 @@
       <c r="A42" s="0">
         <v>16</v>
       </c>
+      <c r="E42" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
         <v>17</v>
       </c>
+      <c r="E43" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
@@ -565,7 +583,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -592,38 +610,38 @@
       <c r="A48" s="0">
         <v>7</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
         <v>8</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
         <v>9</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
         <v>10</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>19</v>
+      <c r="B51" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
         <v>11</v>
       </c>
+      <c r="B52" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
@@ -634,21 +652,39 @@
       <c r="A54" s="0">
         <v>13</v>
       </c>
+      <c r="E54" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
         <v>14</v>
       </c>
+      <c r="E55" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
         <v>15</v>
       </c>
+      <c r="C56" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
         <v>16</v>
       </c>
+      <c r="C57" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
@@ -662,7 +698,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
@@ -689,13 +725,16 @@
       <c r="A63" s="0">
         <v>7</v>
       </c>
+      <c r="F63" s="0" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
         <v>8</v>
       </c>
-      <c r="C64" s="0" t="s">
-        <v>21</v>
+      <c r="F64" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="65">
@@ -707,38 +746,26 @@
       <c r="A66" s="0">
         <v>10</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>22</v>
+      <c r="E66" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
         <v>11</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
         <v>12</v>
       </c>
-      <c r="B68" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
         <v>13</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="D69" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70">
@@ -746,7 +773,7 @@
         <v>14</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71">
@@ -771,7 +798,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77">
@@ -803,30 +830,36 @@
       <c r="A79" s="0">
         <v>8</v>
       </c>
+      <c r="F79" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
         <v>9</v>
       </c>
+      <c r="B80" s="0" t="s">
+        <v>34</v>
+      </c>
       <c r="F80" s="0" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
         <v>10</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>28</v>
-      </c>
       <c r="F81" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
         <v>11</v>
       </c>
+      <c r="F82" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
@@ -838,7 +871,7 @@
         <v>13</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="85">
@@ -850,16 +883,13 @@
       <c r="A86" s="0">
         <v>15</v>
       </c>
-      <c r="E86" s="0" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
         <v>16</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88">
@@ -874,7 +904,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92">
@@ -901,6 +931,9 @@
       <c r="A93" s="0">
         <v>7</v>
       </c>
+      <c r="C93" s="0" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
@@ -916,32 +949,23 @@
       <c r="A96" s="0">
         <v>10</v>
       </c>
-      <c r="E96" s="0" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
         <v>11</v>
       </c>
-      <c r="E97" s="0" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
         <v>12</v>
       </c>
-      <c r="E98" s="0" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
         <v>13</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100">
@@ -968,10 +992,13 @@
       <c r="A104" s="0">
         <v>18</v>
       </c>
+      <c r="F104" s="0" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107">
@@ -1003,22 +1030,19 @@
       <c r="A109" s="0">
         <v>8</v>
       </c>
+      <c r="D109" s="0" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
         <v>9</v>
       </c>
-      <c r="C110" s="0" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
         <v>10</v>
       </c>
-      <c r="C111" s="0" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
@@ -1029,55 +1053,61 @@
       <c r="A113" s="0">
         <v>12</v>
       </c>
+      <c r="E113" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
         <v>13</v>
       </c>
+      <c r="E114" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
         <v>14</v>
       </c>
-      <c r="C115" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E115" s="0" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
         <v>15</v>
       </c>
-      <c r="C116" s="0" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
         <v>16</v>
       </c>
-      <c r="F117" s="0" t="s">
-        <v>39</v>
+      <c r="B117" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
         <v>17</v>
       </c>
+      <c r="B118" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
         <v>18</v>
       </c>
-      <c r="F119" s="0" t="s">
-        <v>40</v>
+      <c r="D119" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122">
@@ -1104,32 +1134,26 @@
       <c r="A123" s="0">
         <v>7</v>
       </c>
-      <c r="C123" s="0" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
         <v>8</v>
       </c>
-      <c r="B124" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E124" s="0" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
         <v>9</v>
       </c>
+      <c r="E125" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
         <v>10</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127">
@@ -1137,31 +1161,49 @@
         <v>11</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F127" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
         <v>12</v>
       </c>
+      <c r="F128" s="0" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
         <v>13</v>
       </c>
+      <c r="C129" s="0" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
         <v>14</v>
       </c>
-      <c r="F130" s="0" t="s">
-        <v>45</v>
+      <c r="B130" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
         <v>15</v>
       </c>
+      <c r="B131" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
@@ -1180,7 +1222,7 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="137">
@@ -1212,25 +1254,22 @@
       <c r="A139" s="0">
         <v>8</v>
       </c>
+      <c r="B139" s="0" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
         <v>9</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="D140" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
         <v>10</v>
       </c>
-      <c r="D141" s="0" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
@@ -1241,37 +1280,16 @@
       <c r="A143" s="0">
         <v>12</v>
       </c>
-      <c r="D143" s="0" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
         <v>13</v>
       </c>
-      <c r="D144" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E144" s="0" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
         <v>14</v>
       </c>
-      <c r="B145" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C145" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E145" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="F145" s="0" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
@@ -1287,21 +1305,18 @@
       <c r="A148" s="0">
         <v>17</v>
       </c>
-      <c r="B148" s="0" t="s">
-        <v>53</v>
+      <c r="F148" s="0" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
         <v>18</v>
       </c>
-      <c r="C149" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152">
@@ -1333,17 +1348,11 @@
       <c r="A154" s="0">
         <v>8</v>
       </c>
-      <c r="E154" s="0" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
         <v>9</v>
       </c>
-      <c r="E155" s="0" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="0">
@@ -1354,34 +1363,31 @@
       <c r="A157" s="0">
         <v>11</v>
       </c>
+      <c r="D157" s="0" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
         <v>12</v>
       </c>
+      <c r="E158" s="0" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
         <v>13</v>
       </c>
-      <c r="C159" s="0" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
         <v>14</v>
       </c>
-      <c r="B160" s="0" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
         <v>15</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="162">

--- a/ProjectCore/ProjectData/OutputExcel.xlsx
+++ b/ProjectCore/ProjectData/OutputExcel.xlsx
@@ -20,181 +20,181 @@
     <t>Godzina/Dzień</t>
   </si>
   <si>
-    <t xml:space="preserve">Metody sztucznej inteligencji / 13k1  14 Piedad Meggs  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorytmy i struktury danych / 12k1  6 Glendora Sugar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geometria obliczeniowa / 14k1  13 Antonia Wayt  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bazy danych / 13k1  11 Raina Fisk  </t>
-  </si>
-  <si>
-    <t>Technika cyfrowa / 11k1 3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Złożone systemy cyfrowe / 12k1  9 Genevie Fines  </t>
-  </si>
-  <si>
     <t>101</t>
   </si>
   <si>
-    <t>Sieci komputerowe / 11k1 4 Harlan Kilgore  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programowanie funkcyjne / 12k1  14 Piedad Meggs  </t>
-  </si>
-  <si>
-    <t>Programowanie obiektowe / 11k2 10 Kaleigh Baltazar  </t>
-  </si>
-  <si>
-    <t>Inżynieria oprogramowania / 11k2 6 Glendora Sugar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podstawy baz danych / 13k1  5 Kira Farrington  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projekt inżynierski / 12k1  5 Kira Farrington  </t>
+    <t xml:space="preserve">Przedmiot obieralny 2 / 14k1  11 Raina Fisk  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria automatów i języków formalnych / 13k2  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazy danych / 12k1  10 Kaleigh Baltazar  </t>
+  </si>
+  <si>
+    <t>Metody obliczeniowe w nauce i technice 2 / 11k1 5 Kira Farrington  </t>
+  </si>
+  <si>
+    <t>Równania różniczkowe i różnicowe / 11k2 1 Irene Berends  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analiza matematyczna 1 / 14k1  12 Richelle Pittenger  </t>
+  </si>
+  <si>
+    <t>Wstęp do informatyki / 11k2 13 Antonia Wayt  </t>
+  </si>
+  <si>
+    <t>Systemy rozproszone / 11k1 9 Genevie Fines  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ochrona własności intelektualnej / 12k1  6 Glendora Sugar  </t>
   </si>
   <si>
     <t>102</t>
   </si>
   <si>
-    <t xml:space="preserve">Sieci komputerowe / 12k2  9 Genevie Fines  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wychowanie fizyczne 3 / 13k2  12 Richelle Pittenger  </t>
-  </si>
-  <si>
-    <t>Fizyka 2 / 11k1 5 Kira Farrington  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorytmy i struktury danych / 12k1  4 Harlan Kilgore  </t>
+    <t xml:space="preserve">Architektura komputerów / 12k2  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statystyka matematyczna / 12k2  12 Richelle Pittenger  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programowanie funkcyjne / 12k2  2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Złożone systemy cyfrowe / 12k2  7 Drusilla Chinn  </t>
   </si>
   <si>
     <t>103</t>
   </si>
   <si>
-    <t>Programowanie imperatywne / 11k2 4 Harlan Kilgore  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kompilatory / 13k2  2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Komunikacja i techniki zarządzania / 13k2  5 Kira Farrington  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fizyka 1 / 12k2  10 Kaleigh Baltazar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Komunikacja i techniki zarządzania / 12k1  2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wprowadzenie do systemu UNIX / 13k1  6 Glendora Sugar  </t>
-  </si>
-  <si>
-    <t>Statystyka matematyczna / 11k1 8 Michale Lehoux  </t>
+    <t>Wychowanie fizyczne 3 / 11k1 4 Harlan Kilgore  </t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
-    <t xml:space="preserve">Technologie obiektowe 2 / 12k2  7 Drusilla Chinn  </t>
-  </si>
-  <si>
-    <t>Metody sztucznej inteligencji / 11k1 5 Kira Farrington  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przedmiot obieralny 1 / 12k2  5 Kira Farrington  </t>
+    <t xml:space="preserve">Metody sztucznej inteligencji / 12k2  12 Richelle Pittenger  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praktyka zawodowa / 13k1  11 Raina Fisk  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pracownia projektowa 1  / 13k2  7 Drusilla Chinn  </t>
   </si>
   <si>
     <t>201</t>
   </si>
   <si>
-    <t xml:space="preserve">Przedmiot obieralny 2 / 12k1  12 Richelle Pittenger  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metody sztucznej inteligencji / 12k1  1 Irene Berends  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technika cyfrowa / 12k1  8 Michale Lehoux  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technika mikroprocesorowa / 13k2  14 Piedad Meggs  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wstęp do grafiki komputerowej / 12k1  11 Raina Fisk  </t>
+    <t>Algorytmy i struktury danych / 11k1 8 Michale Lehoux  </t>
   </si>
   <si>
     <t>202</t>
   </si>
   <si>
-    <t xml:space="preserve">Projektowanie systemów informatycznych / 12k2  9 Genevie Fines  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Równania różniczkowe i różnicowe / 13k2  9 Genevie Fines  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wprowadzenie do systemu UNIX / 13k2  10 Kaleigh Baltazar  </t>
+    <t xml:space="preserve">Analiza matematyczna 2 / 13k1  10 Kaleigh Baltazar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algebra / 13k2  13 Antonia Wayt  </t>
   </si>
   <si>
     <t>203</t>
   </si>
   <si>
-    <t xml:space="preserve">Projektowanie systemów informatycznych / 12k2  1 Irene Berends  </t>
-  </si>
-  <si>
-    <t>Systemy wbudowane / 11k2 9 Genevie Fines  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analiza matematyczna 1 / 12k2  12 Richelle Pittenger  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sieci komputerowe / 12k1  7 Drusilla Chinn  </t>
+    <t xml:space="preserve">Asemblery / 13k2  2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programowanie obiektowe / 12k2  5 Kira Farrington  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fizyka 1 / 12k2  2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t>Kompilatory / 11k2 10 Kaleigh Baltazar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systemy wbudowane / 12k2  9 Genevie Fines  </t>
+  </si>
+  <si>
+    <t>Wstęp do grafiki komputerowej / 11k2 2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systemy operacyjne / 12k1  13 Antonia Wayt  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matematyka dyskretna / 12k2  12 Richelle Pittenger  </t>
+  </si>
+  <si>
+    <t>Komunikacja i techniki zarządzania / 11k2 14 Piedad Meggs  </t>
+  </si>
+  <si>
+    <t>Technika cyfrowa / 11k2 8 Michale Lehoux  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przedmiot obieralny 3 / 14k1  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technika mikroprocesorowa / 13k1  10 Kaleigh Baltazar  </t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programowanie imperatywne / 13k2  10 Kaleigh Baltazar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fizyka 2 / 13k2  11 Raina Fisk  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inżynieria oprogramowania / 12k1  1 Irene Berends  </t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wprowadzenie do systemu UNIX / 14k1  2 Josphine Lebsock  </t>
   </si>
   <si>
     <t xml:space="preserve">Technologie obiektowe 2 / 12k2  3 Ella Cutlip  </t>
   </si>
   <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optymalizacja kodu na różne architektury / 13k1  3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algebra / 12k1  11 Raina Fisk  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ochrona własności intelektualnej / 14k1  6 Glendora Sugar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logika matematyczna w informatyce / 13k2  12 Richelle Pittenger  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geometria obliczeniowa / 13k1  7 Drusilla Chinn  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analiza matematyczna 2 / 13k1  1 Irene Berends  </t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>Przedmiot obieralny / 11k2 13 Antonia Wayt  </t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne 2 / 11k2 6 Glendora Sugar  </t>
+    <t xml:space="preserve">Sieci komputerowe / 12k2  11 Raina Fisk  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria obliczeń i złożoności obliczeniowej / 12k1  4 Harlan Kilgore  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wychowanie fizyczne 2 / 13k1  13 Antonia Wayt  </t>
+  </si>
+  <si>
+    <t>Technologie obiektowe 1 / 11k2 3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usability Engineering / 13k1  10 Kaleigh Baltazar  </t>
   </si>
   <si>
     <t>301</t>
   </si>
   <si>
-    <t xml:space="preserve">Fizyka 1 / 13k2  8 Michale Lehoux  </t>
-  </si>
-  <si>
-    <t>Algorytmy i struktury danych / 11k1 13 Antonia Wayt  </t>
+    <t xml:space="preserve">Podstawy baz danych / 12k1  1 Irene Berends  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektowanie systemów informatycznych / 14k1  7 Drusilla Chinn  </t>
+  </si>
+  <si>
+    <t>Teoria współbieżności / 11k2 3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metody obliczeniowe w nauce i technice 1 / 13k2  7 Drusilla Chinn  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podstawy elektroniki / 12k1  4 Harlan Kilgore  </t>
+  </si>
+  <si>
+    <t>Przedmiot obieralny 1 / 11k2 6 Glendora Sugar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logika matematyczna w informatyce / 12k1  7 Drusilla Chinn  </t>
   </si>
 </sst>
 </file>
@@ -247,11 +247,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.2767210006714" customWidth="1"/>
-    <col min="2" max="2" width="52.8053588867188" customWidth="1"/>
-    <col min="3" max="3" width="59.3724136352539" customWidth="1"/>
-    <col min="4" max="4" width="59.4082221984863" customWidth="1"/>
-    <col min="5" max="5" width="55.4949951171875" customWidth="1"/>
-    <col min="6" max="6" width="58.7248153686523" customWidth="1"/>
+    <col min="2" max="2" width="51.1858444213867" customWidth="1"/>
+    <col min="3" max="3" width="59.792896270752" customWidth="1"/>
+    <col min="4" max="4" width="59.2690811157227" customWidth="1"/>
+    <col min="5" max="5" width="58.675708770752" customWidth="1"/>
+    <col min="6" max="6" width="59.3345603942871" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -288,36 +288,21 @@
       <c r="A4" s="0">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
         <v>10</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
         <v>11</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -338,9 +323,6 @@
       <c r="A11" s="0">
         <v>15</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
@@ -351,21 +333,15 @@
       <c r="A13" s="0">
         <v>17</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
         <v>18</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -392,30 +368,21 @@
       <c r="A18" s="0">
         <v>7</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
         <v>8</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
         <v>9</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>10</v>
+      <c r="B20" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -423,32 +390,32 @@
         <v>10</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
         <v>11</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>13</v>
+      <c r="B22" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
         <v>12</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>13</v>
+      <c r="C23" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
         <v>13</v>
       </c>
+      <c r="C24" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
@@ -459,25 +426,49 @@
       <c r="A26" s="0">
         <v>15</v>
       </c>
+      <c r="C26" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
         <v>16</v>
       </c>
+      <c r="D27" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
         <v>17</v>
       </c>
+      <c r="B28" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
         <v>18</v>
       </c>
+      <c r="B29" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -519,62 +510,62 @@
       <c r="A36" s="0">
         <v>10</v>
       </c>
-      <c r="C36" s="0" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
         <v>11</v>
       </c>
-      <c r="C37" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
         <v>12</v>
       </c>
+      <c r="D38" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
         <v>13</v>
       </c>
+      <c r="D39" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
         <v>14</v>
       </c>
+      <c r="E40" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
         <v>15</v>
       </c>
+      <c r="E41" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
         <v>16</v>
       </c>
+      <c r="C42" s="0" t="s">
+        <v>16</v>
+      </c>
       <c r="E42" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
         <v>17</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
@@ -583,7 +574,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
@@ -615,9 +606,6 @@
       <c r="A49" s="0">
         <v>8</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
@@ -628,63 +616,39 @@
       <c r="A51" s="0">
         <v>10</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
         <v>11</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
         <v>12</v>
       </c>
+      <c r="E53" s="0" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
         <v>13</v>
       </c>
-      <c r="E54" s="0" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
         <v>14</v>
       </c>
-      <c r="E55" s="0" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
         <v>15</v>
       </c>
-      <c r="C56" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
         <v>16</v>
       </c>
-      <c r="C57" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
@@ -698,7 +662,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62">
@@ -725,16 +689,13 @@
       <c r="A63" s="0">
         <v>7</v>
       </c>
-      <c r="F63" s="0" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
         <v>8</v>
       </c>
-      <c r="F64" s="0" t="s">
-        <v>29</v>
+      <c r="E64" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -746,9 +707,6 @@
       <c r="A66" s="0">
         <v>10</v>
       </c>
-      <c r="E66" s="0" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
@@ -764,22 +722,25 @@
       <c r="A69" s="0">
         <v>13</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>31</v>
+      <c r="B69" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
         <v>14</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>31</v>
+      <c r="B70" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
         <v>15</v>
       </c>
+      <c r="F71" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
@@ -798,7 +759,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
@@ -830,35 +791,26 @@
       <c r="A79" s="0">
         <v>8</v>
       </c>
-      <c r="F79" s="0" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="0">
         <v>9</v>
       </c>
-      <c r="B80" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
         <v>10</v>
       </c>
-      <c r="F81" s="0" t="s">
-        <v>35</v>
+      <c r="E81" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
         <v>11</v>
       </c>
-      <c r="F82" s="0" t="s">
-        <v>35</v>
+      <c r="E82" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="83">
@@ -870,9 +822,6 @@
       <c r="A84" s="0">
         <v>13</v>
       </c>
-      <c r="E84" s="0" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
@@ -888,9 +837,6 @@
       <c r="A87" s="0">
         <v>16</v>
       </c>
-      <c r="E87" s="0" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
@@ -904,7 +850,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -932,13 +878,16 @@
         <v>7</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
         <v>8</v>
       </c>
+      <c r="C94" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
@@ -964,9 +913,6 @@
       <c r="A99" s="0">
         <v>13</v>
       </c>
-      <c r="B99" s="0" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
@@ -982,6 +928,9 @@
       <c r="A102" s="0">
         <v>16</v>
       </c>
+      <c r="C102" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
@@ -992,13 +941,10 @@
       <c r="A104" s="0">
         <v>18</v>
       </c>
-      <c r="F104" s="0" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
@@ -1025,89 +971,125 @@
       <c r="A108" s="0">
         <v>7</v>
       </c>
+      <c r="B108" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
         <v>8</v>
       </c>
-      <c r="D109" s="0" t="s">
-        <v>43</v>
+      <c r="B109" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
         <v>9</v>
       </c>
+      <c r="B110" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
         <v>10</v>
       </c>
+      <c r="B111" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
         <v>11</v>
       </c>
+      <c r="D112" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
         <v>12</v>
       </c>
+      <c r="D113" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="E113" s="0" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
         <v>13</v>
       </c>
+      <c r="D114" s="0" t="s">
+        <v>37</v>
+      </c>
       <c r="E114" s="0" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
         <v>14</v>
       </c>
+      <c r="E115" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
         <v>15</v>
       </c>
+      <c r="D116" s="0" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
         <v>16</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
         <v>17</v>
       </c>
-      <c r="B118" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
         <v>18</v>
       </c>
-      <c r="D119" s="0" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122">
@@ -1144,66 +1126,45 @@
       <c r="A125" s="0">
         <v>9</v>
       </c>
-      <c r="E125" s="0" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
         <v>10</v>
       </c>
-      <c r="C126" s="0" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
         <v>11</v>
       </c>
-      <c r="C127" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D127" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F127" s="0" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="0">
         <v>12</v>
       </c>
-      <c r="F128" s="0" t="s">
-        <v>52</v>
+      <c r="B128" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
         <v>13</v>
       </c>
-      <c r="C129" s="0" t="s">
-        <v>53</v>
+      <c r="B129" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
         <v>14</v>
       </c>
-      <c r="B130" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
         <v>15</v>
       </c>
-      <c r="B131" s="0" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
@@ -1214,6 +1175,9 @@
       <c r="A133" s="0">
         <v>17</v>
       </c>
+      <c r="B133" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
@@ -1222,7 +1186,7 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137">
@@ -1249,32 +1213,47 @@
       <c r="A138" s="0">
         <v>7</v>
       </c>
+      <c r="E138" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F138" s="0" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
         <v>8</v>
       </c>
-      <c r="B139" s="0" t="s">
-        <v>56</v>
+      <c r="F139" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
         <v>9</v>
       </c>
-      <c r="B140" s="0" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
         <v>10</v>
       </c>
+      <c r="C141" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E141" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
         <v>11</v>
       </c>
+      <c r="C142" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E142" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
@@ -1290,23 +1269,35 @@
       <c r="A145" s="0">
         <v>14</v>
       </c>
+      <c r="D145" s="0" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
         <v>15</v>
       </c>
+      <c r="F146" s="0" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
         <v>16</v>
       </c>
+      <c r="C147" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F147" s="0" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
         <v>17</v>
       </c>
-      <c r="F148" s="0" t="s">
-        <v>57</v>
+      <c r="C148" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="149">
@@ -1316,7 +1307,7 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152">
@@ -1348,6 +1339,12 @@
       <c r="A154" s="0">
         <v>8</v>
       </c>
+      <c r="C154" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D154" s="0" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
@@ -1363,32 +1360,38 @@
       <c r="A157" s="0">
         <v>11</v>
       </c>
-      <c r="D157" s="0" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
         <v>12</v>
       </c>
-      <c r="E158" s="0" t="s">
-        <v>60</v>
+      <c r="F158" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
         <v>13</v>
       </c>
+      <c r="F159" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
         <v>14</v>
       </c>
+      <c r="F160" s="0" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
         <v>15</v>
       </c>
+      <c r="E161" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
@@ -1399,10 +1402,16 @@
       <c r="A163" s="0">
         <v>17</v>
       </c>
+      <c r="E163" s="0" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
         <v>18</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectCore/ProjectData/OutputExcel.xlsx
+++ b/ProjectCore/ProjectData/OutputExcel.xlsx
@@ -20,181 +20,181 @@
     <t>Godzina/Dzień</t>
   </si>
   <si>
+    <t xml:space="preserve">Architektura komputerów / 12k2  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usability Engineering / 13k1  10 Kaleigh Baltazar  </t>
+  </si>
+  <si>
     <t>101</t>
   </si>
   <si>
+    <t>Teoria współbieżności / 11k2 3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podstawy elektroniki / 12k1  4 Harlan Kilgore  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technika mikroprocesorowa / 13k1  10 Kaleigh Baltazar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fizyka 2 / 13k2  11 Raina Fisk  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektowanie systemów informatycznych / 14k1  7 Drusilla Chinn  </t>
+  </si>
+  <si>
+    <t>Wstęp do grafiki komputerowej / 11k2 2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne 3 / 11k1 4 Harlan Kilgore  </t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fizyka 1 / 12k2  2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sieci komputerowe / 12k2  11 Raina Fisk  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statystyka matematyczna / 12k2  12 Richelle Pittenger  </t>
+  </si>
+  <si>
+    <t>Systemy rozproszone / 11k1 9 Genevie Fines  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Złożone systemy cyfrowe / 12k2  7 Drusilla Chinn  </t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analiza matematyczna 1 / 14k1  12 Richelle Pittenger  </t>
+  </si>
+  <si>
+    <t>Komunikacja i techniki zarządzania / 11k2 14 Piedad Meggs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ochrona własności intelektualnej / 12k1  6 Glendora Sugar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria automatów i języków formalnych / 13k2  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analiza matematyczna 2 / 13k1  10 Kaleigh Baltazar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazy danych / 12k1  10 Kaleigh Baltazar  </t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metody sztucznej inteligencji / 12k2  12 Richelle Pittenger  </t>
+  </si>
+  <si>
+    <t>Algorytmy i struktury danych / 11k1 8 Michale Lehoux  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pracownia projektowa 1  / 13k2  7 Drusilla Chinn  </t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algebra / 13k2  13 Antonia Wayt  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praktyka zawodowa / 13k1  11 Raina Fisk  </t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>Metody obliczeniowe w nauce i technice 2 / 11k1 5 Kira Farrington  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wprowadzenie do systemu UNIX / 14k1  2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t>Technologie obiektowe 1 / 11k2 3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wychowanie fizyczne 2 / 13k1  13 Antonia Wayt  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Przedmiot obieralny 2 / 14k1  11 Raina Fisk  </t>
   </si>
   <si>
-    <t xml:space="preserve">Teoria automatów i języków formalnych / 13k2  3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bazy danych / 12k1  10 Kaleigh Baltazar  </t>
-  </si>
-  <si>
-    <t>Metody obliczeniowe w nauce i technice 2 / 11k1 5 Kira Farrington  </t>
+    <t>Wstęp do informatyki / 11k2 13 Antonia Wayt  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asemblery / 13k2  2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teoria obliczeń i złożoności obliczeniowej / 12k1  4 Harlan Kilgore  </t>
+  </si>
+  <si>
+    <t>Przedmiot obieralny 1 / 11k2 6 Glendora Sugar  </t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programowanie imperatywne / 13k2  10 Kaleigh Baltazar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systemy operacyjne / 12k1  13 Antonia Wayt  </t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programowanie funkcyjne / 12k2  2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inżynieria oprogramowania / 12k1  1 Irene Berends  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technologie obiektowe 2 / 12k2  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matematyka dyskretna / 12k2  12 Richelle Pittenger  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podstawy baz danych / 12k1  1 Irene Berends  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logika matematyczna w informatyce / 12k1  7 Drusilla Chinn  </t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metody obliczeniowe w nauce i technice 1 / 13k2  7 Drusilla Chinn  </t>
+  </si>
+  <si>
+    <t>Kompilatory / 11k2 10 Kaleigh Baltazar  </t>
   </si>
   <si>
     <t>Równania różniczkowe i różnicowe / 11k2 1 Irene Berends  </t>
   </si>
   <si>
-    <t xml:space="preserve">Analiza matematyczna 1 / 14k1  12 Richelle Pittenger  </t>
-  </si>
-  <si>
-    <t>Wstęp do informatyki / 11k2 13 Antonia Wayt  </t>
-  </si>
-  <si>
-    <t>Systemy rozproszone / 11k1 9 Genevie Fines  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ochrona własności intelektualnej / 12k1  6 Glendora Sugar  </t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architektura komputerów / 12k2  3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statystyka matematyczna / 12k2  12 Richelle Pittenger  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programowanie funkcyjne / 12k2  2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Złożone systemy cyfrowe / 12k2  7 Drusilla Chinn  </t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne 3 / 11k1 4 Harlan Kilgore  </t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metody sztucznej inteligencji / 12k2  12 Richelle Pittenger  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Praktyka zawodowa / 13k1  11 Raina Fisk  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pracownia projektowa 1  / 13k2  7 Drusilla Chinn  </t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>Algorytmy i struktury danych / 11k1 8 Michale Lehoux  </t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analiza matematyczna 2 / 13k1  10 Kaleigh Baltazar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algebra / 13k2  13 Antonia Wayt  </t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asemblery / 13k2  2 Josphine Lebsock  </t>
+    <t xml:space="preserve">Przedmiot obieralny 3 / 14k1  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t>Technika cyfrowa / 11k2 8 Michale Lehoux  </t>
   </si>
   <si>
     <t xml:space="preserve">Programowanie obiektowe / 12k2  5 Kira Farrington  </t>
   </si>
   <si>
-    <t xml:space="preserve">Fizyka 1 / 12k2  2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t>Kompilatory / 11k2 10 Kaleigh Baltazar  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Systemy wbudowane / 12k2  9 Genevie Fines  </t>
-  </si>
-  <si>
-    <t>Wstęp do grafiki komputerowej / 11k2 2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systemy operacyjne / 12k1  13 Antonia Wayt  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matematyka dyskretna / 12k2  12 Richelle Pittenger  </t>
-  </si>
-  <si>
-    <t>Komunikacja i techniki zarządzania / 11k2 14 Piedad Meggs  </t>
-  </si>
-  <si>
-    <t>Technika cyfrowa / 11k2 8 Michale Lehoux  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przedmiot obieralny 3 / 14k1  3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technika mikroprocesorowa / 13k1  10 Kaleigh Baltazar  </t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programowanie imperatywne / 13k2  10 Kaleigh Baltazar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fizyka 2 / 13k2  11 Raina Fisk  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inżynieria oprogramowania / 12k1  1 Irene Berends  </t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wprowadzenie do systemu UNIX / 14k1  2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technologie obiektowe 2 / 12k2  3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sieci komputerowe / 12k2  11 Raina Fisk  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teoria obliczeń i złożoności obliczeniowej / 12k1  4 Harlan Kilgore  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wychowanie fizyczne 2 / 13k1  13 Antonia Wayt  </t>
-  </si>
-  <si>
-    <t>Technologie obiektowe 1 / 11k2 3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usability Engineering / 13k1  10 Kaleigh Baltazar  </t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podstawy baz danych / 12k1  1 Irene Berends  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektowanie systemów informatycznych / 14k1  7 Drusilla Chinn  </t>
-  </si>
-  <si>
-    <t>Teoria współbieżności / 11k2 3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metody obliczeniowe w nauce i technice 1 / 13k2  7 Drusilla Chinn  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podstawy elektroniki / 12k1  4 Harlan Kilgore  </t>
-  </si>
-  <si>
-    <t>Przedmiot obieralny 1 / 11k2 6 Glendora Sugar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logika matematyczna w informatyce / 12k1  7 Drusilla Chinn  </t>
   </si>
 </sst>
 </file>
@@ -247,11 +247,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.2767210006714" customWidth="1"/>
-    <col min="2" max="2" width="51.1858444213867" customWidth="1"/>
+    <col min="2" max="2" width="59.3345603942871" customWidth="1"/>
     <col min="3" max="3" width="59.792896270752" customWidth="1"/>
-    <col min="4" max="4" width="59.2690811157227" customWidth="1"/>
+    <col min="4" max="4" width="43.5691223144531" customWidth="1"/>
     <col min="5" max="5" width="58.675708770752" customWidth="1"/>
-    <col min="6" max="6" width="59.3345603942871" customWidth="1"/>
+    <col min="6" max="6" width="59.2690811157227" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -293,16 +293,28 @@
       <c r="A5" s="0">
         <v>9</v>
       </c>
+      <c r="D5" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
         <v>10</v>
       </c>
+      <c r="C6" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
         <v>11</v>
       </c>
+      <c r="C7" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -341,7 +353,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -368,53 +380,50 @@
       <c r="A18" s="0">
         <v>7</v>
       </c>
+      <c r="D18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
         <v>8</v>
       </c>
+      <c r="B19" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
         <v>9</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>4</v>
+      <c r="C20" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
         <v>10</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
         <v>11</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
         <v>12</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
         <v>13</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>6</v>
+      <c r="F24" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -426,43 +435,25 @@
       <c r="A26" s="0">
         <v>15</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
         <v>16</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>9</v>
-      </c>
       <c r="E27" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
         <v>17</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
         <v>18</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="0" t="s">
+      <c r="D29" s="0" t="s">
         <v>11</v>
       </c>
     </row>
@@ -495,11 +486,23 @@
       <c r="A33" s="0">
         <v>7</v>
       </c>
+      <c r="B33" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
         <v>8</v>
       </c>
+      <c r="B34" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
@@ -520,47 +523,41 @@
       <c r="A38" s="0">
         <v>12</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>13</v>
+      <c r="E38" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
         <v>13</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>13</v>
+      <c r="B39" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
         <v>14</v>
       </c>
-      <c r="E40" s="0" t="s">
-        <v>14</v>
+      <c r="B40" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
         <v>15</v>
       </c>
-      <c r="E41" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
         <v>16</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
@@ -574,7 +571,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -626,9 +623,6 @@
       <c r="A53" s="0">
         <v>12</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
@@ -694,19 +688,28 @@
       <c r="A64" s="0">
         <v>8</v>
       </c>
-      <c r="E64" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
         <v>9</v>
       </c>
+      <c r="E65" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
         <v>10</v>
       </c>
+      <c r="C66" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
@@ -722,35 +725,41 @@
       <c r="A69" s="0">
         <v>13</v>
       </c>
-      <c r="B69" s="0" t="s">
-        <v>21</v>
+      <c r="F69" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
         <v>14</v>
       </c>
-      <c r="B70" s="0" t="s">
-        <v>21</v>
+      <c r="F70" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
         <v>15</v>
       </c>
-      <c r="F71" s="0" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
         <v>16</v>
       </c>
+      <c r="B72" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="0">
         <v>17</v>
       </c>
+      <c r="B73" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
@@ -759,7 +768,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
@@ -786,6 +795,9 @@
       <c r="A78" s="0">
         <v>7</v>
       </c>
+      <c r="E78" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
@@ -801,17 +813,11 @@
       <c r="A81" s="0">
         <v>10</v>
       </c>
-      <c r="E81" s="0" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
         <v>11</v>
       </c>
-      <c r="E82" s="0" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
@@ -832,16 +838,25 @@
       <c r="A86" s="0">
         <v>15</v>
       </c>
+      <c r="C86" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
         <v>16</v>
       </c>
+      <c r="C87" s="0" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
         <v>17</v>
       </c>
+      <c r="C88" s="0" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
@@ -850,7 +865,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
@@ -877,17 +892,14 @@
       <c r="A93" s="0">
         <v>7</v>
       </c>
-      <c r="C93" s="0" t="s">
-        <v>26</v>
+      <c r="D93" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
         <v>8</v>
       </c>
-      <c r="C94" s="0" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
@@ -908,11 +920,17 @@
       <c r="A98" s="0">
         <v>12</v>
       </c>
+      <c r="B98" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
         <v>13</v>
       </c>
+      <c r="B99" s="0" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
@@ -928,9 +946,6 @@
       <c r="A102" s="0">
         <v>16</v>
       </c>
-      <c r="C102" s="0" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
@@ -944,7 +959,7 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107">
@@ -971,50 +986,44 @@
       <c r="A108" s="0">
         <v>7</v>
       </c>
-      <c r="B108" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="C108" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
         <v>8</v>
       </c>
-      <c r="B109" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="C109" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
         <v>9</v>
       </c>
-      <c r="B110" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
         <v>10</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112">
@@ -1022,32 +1031,20 @@
         <v>11</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E112" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
         <v>12</v>
       </c>
-      <c r="D113" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E113" s="0" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="0">
         <v>13</v>
       </c>
-      <c r="D114" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="E114" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115">
@@ -1055,32 +1052,32 @@
         <v>14</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
         <v>15</v>
       </c>
-      <c r="D116" s="0" t="s">
-        <v>39</v>
+      <c r="E116" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
         <v>16</v>
       </c>
-      <c r="B117" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>39</v>
+      <c r="E117" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
         <v>17</v>
       </c>
+      <c r="E118" s="0" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
@@ -1089,7 +1086,7 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122">
@@ -1141,25 +1138,22 @@
       <c r="A128" s="0">
         <v>12</v>
       </c>
-      <c r="B128" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
         <v>13</v>
       </c>
-      <c r="B129" s="0" t="s">
-        <v>42</v>
+      <c r="C129" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
         <v>14</v>
       </c>
+      <c r="C130" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
@@ -1175,18 +1169,21 @@
       <c r="A133" s="0">
         <v>17</v>
       </c>
-      <c r="B133" s="0" t="s">
-        <v>44</v>
+      <c r="C133" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0">
         <v>18</v>
       </c>
+      <c r="C134" s="0" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137">
@@ -1213,45 +1210,36 @@
       <c r="A138" s="0">
         <v>7</v>
       </c>
-      <c r="E138" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F138" s="0" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
         <v>8</v>
       </c>
-      <c r="F139" s="0" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
         <v>9</v>
       </c>
+      <c r="E140" s="0" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
         <v>10</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="B141" s="0" t="s">
         <v>48</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0">
         <v>11</v>
       </c>
-      <c r="C142" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E142" s="0" t="s">
+      <c r="D142" s="0" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1259,6 +1247,9 @@
       <c r="A143" s="0">
         <v>12</v>
       </c>
+      <c r="D143" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
@@ -1269,7 +1260,7 @@
       <c r="A145" s="0">
         <v>14</v>
       </c>
-      <c r="D145" s="0" t="s">
+      <c r="E145" s="0" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1277,33 +1268,30 @@
       <c r="A146" s="0">
         <v>15</v>
       </c>
-      <c r="F146" s="0" t="s">
+      <c r="C146" s="0" t="s">
         <v>51</v>
+      </c>
+      <c r="E146" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
         <v>16</v>
       </c>
-      <c r="C147" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F147" s="0" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
         <v>17</v>
       </c>
-      <c r="C148" s="0" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
         <v>18</v>
       </c>
+      <c r="B149" s="0" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
@@ -1334,16 +1322,16 @@
       <c r="A153" s="0">
         <v>7</v>
       </c>
+      <c r="B153" s="0" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
         <v>8</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="B154" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="D154" s="0" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="155">
@@ -1360,20 +1348,26 @@
       <c r="A157" s="0">
         <v>11</v>
       </c>
+      <c r="B157" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
         <v>12</v>
       </c>
-      <c r="F158" s="0" t="s">
-        <v>56</v>
+      <c r="B158" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
         <v>13</v>
       </c>
-      <c r="F159" s="0" t="s">
+      <c r="D159" s="0" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1381,8 +1375,11 @@
       <c r="A160" s="0">
         <v>14</v>
       </c>
-      <c r="F160" s="0" t="s">
+      <c r="D160" s="0" t="s">
         <v>57</v>
+      </c>
+      <c r="E160" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="161">
@@ -1397,20 +1394,23 @@
       <c r="A162" s="0">
         <v>16</v>
       </c>
+      <c r="C162" s="0" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
         <v>17</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
         <v>18</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="E164" s="0" t="s">
         <v>60</v>
       </c>
     </row>

--- a/ProjectCore/ProjectData/OutputExcel.xlsx
+++ b/ProjectCore/ProjectData/OutputExcel.xlsx
@@ -20,103 +20,103 @@
     <t>Godzina/Dzień</t>
   </si>
   <si>
+    <t xml:space="preserve">Metody obliczeniowe w nauce i technice 1 / 12k1  1 Irene Berends  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technologie obiektowe 1 / 12k2  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t>Programowanie imperatywne / 11k2 2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t>Wstęp do informatyki / 11k1 1 Irene Berends  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przedmiot obieralny 1 / 12k2  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podstawy baz danych / 12k1  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t>Analiza matematyczna 1 / 11k1 2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statystyka matematyczna / 12k2  1 Irene Berends  </t>
+  </si>
+  <si>
     <t>Logika matematyczna w informatyce / 11k2 1 Irene Berends  </t>
   </si>
   <si>
-    <t>Wstęp do informatyki / 11k1 1 Irene Berends  </t>
+    <t>Komunikacja i techniki zarządzania / 11k1 3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technika mikroprocesorowa / 12k2  2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Równania różniczkowe i różnicowe / 12k1  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przedmiot obieralny 2 / 12k2  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t>Algorytmy i struktury danych / 11k2 2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technika cyfrowa / 12k1  1 Irene Berends  </t>
+  </si>
+  <si>
+    <t>Podstawy elektroniki / 11k2 1 Irene Berends  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systemy operacyjne / 12k2  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Fizyka 2 / 11k2 1 Irene Berends  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programowanie obiektowe / 12k1  2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wychowanie fizyczne 3 / 12k1  1 Irene Berends  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektowanie systemów informatycznych / 12k1  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programowanie funkcyjne / 12k1  1 Irene Berends  </t>
+  </si>
+  <si>
+    <t>Fizyka 1 / 11k1 2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przedmiot obieralny 3 / 12k2  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t>Wychowanie fizyczne 2 / 11k2 2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t>Analiza matematyczna 2 / 11k2 2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t>Algebra / 11k1 1 Irene Berends  </t>
   </si>
   <si>
     <t>Asemblery / 11k2 3 Ella Cutlip  </t>
   </si>
   <si>
-    <t xml:space="preserve">Statystyka matematyczna / 12k2  1 Irene Berends  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przedmiot obieralny 2 / 12k2  3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wychowanie fizyczne 3 / 12k1  1 Irene Berends  </t>
-  </si>
-  <si>
-    <t>Analiza matematyczna 2 / 11k2 2 Josphine Lebsock  </t>
+    <t>Ochrona własności intelektualnej / 11k1 2 Josphine Lebsock  </t>
   </si>
   <si>
     <t>Wprowadzenie do systemu UNIX / 11k1 2 Josphine Lebsock  </t>
   </si>
   <si>
-    <t xml:space="preserve">Przedmiot obieralny 1 / 12k2  3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t>Ochrona własności intelektualnej / 11k1 2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programowanie funkcyjne / 12k1  1 Irene Berends  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektowanie systemów informatycznych / 12k1  3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne 2 / 11k2 2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t>Algebra / 11k1 1 Irene Berends  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podstawy baz danych / 12k1  3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t>Podstawy elektroniki / 11k2 1 Irene Berends  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przedmiot obieralny 3 / 12k2  3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t>Algorytmy i struktury danych / 11k2 2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systemy operacyjne / 12k2  3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technika cyfrowa / 12k1  1 Irene Berends  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technika mikroprocesorowa / 12k2  2 Josphine Lebsock  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bazy danych / 12k2  1 Irene Berends  </t>
   </si>
   <si>
-    <t xml:space="preserve">Równania różniczkowe i różnicowe / 12k1  3 Ella Cutlip  </t>
-  </si>
-  <si>
     <t>Matematyka dyskretna / 11k1 2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t>Komunikacja i techniki zarządzania / 11k1 3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t>Fizyka 2 / 11k2 1 Irene Berends  </t>
-  </si>
-  <si>
-    <t>Programowanie imperatywne / 11k2 2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programowanie obiektowe / 12k1  2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technologie obiektowe 1 / 12k2  3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t>Analiza matematyczna 1 / 11k1 2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t>Fizyka 1 / 11k1 2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metody obliczeniowe w nauce i technice 1 / 12k1  1 Irene Berends  </t>
   </si>
 </sst>
 </file>
@@ -169,11 +169,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.2767210006714" customWidth="1"/>
-    <col min="2" max="2" width="49.2880592346191" customWidth="1"/>
-    <col min="3" max="3" width="59.4736976623535" customWidth="1"/>
+    <col min="2" max="2" width="45.978443145752" customWidth="1"/>
+    <col min="3" max="3" width="53.7445335388184" customWidth="1"/>
     <col min="4" max="4" width="53.9471015930176" customWidth="1"/>
-    <col min="5" max="5" width="50.7704811096191" customWidth="1"/>
-    <col min="6" max="6" width="48.5852127075195" customWidth="1"/>
+    <col min="5" max="5" width="59.4736976623535" customWidth="1"/>
+    <col min="6" max="6" width="49.2880592346191" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -205,19 +205,22 @@
       <c r="A3" s="0">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>2</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
         <v>8</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="C4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -225,26 +228,26 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
         <v>10</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
         <v>11</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>8</v>
+      <c r="F7" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -252,26 +255,26 @@
         <v>12</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
         <v>13</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
         <v>14</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -279,48 +282,39 @@
         <v>15</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
         <v>16</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
         <v>17</v>
       </c>
+      <c r="F13" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
         <v>18</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="B14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -347,74 +341,80 @@
       <c r="A18" s="0">
         <v>7</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
         <v>8</v>
       </c>
+      <c r="F19" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
         <v>9</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>24</v>
+      <c r="E20" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
         <v>10</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="D21" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
         <v>11</v>
       </c>
+      <c r="C22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
         <v>12</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
         <v>13</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>29</v>
+      <c r="B24" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
         <v>14</v>
       </c>
+      <c r="B25" s="0" t="s">
+        <v>28</v>
+      </c>
       <c r="D25" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
         <v>15</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="B26" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>31</v>
       </c>
     </row>
@@ -422,7 +422,7 @@
       <c r="A27" s="0">
         <v>16</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="C27" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="0" t="s">
@@ -433,7 +433,7 @@
       <c r="A28" s="0">
         <v>17</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="D28" s="0" t="s">
         <v>34</v>
       </c>
     </row>

--- a/ProjectCore/ProjectData/OutputExcel.xlsx
+++ b/ProjectCore/ProjectData/OutputExcel.xlsx
@@ -20,103 +20,103 @@
     <t>Godzina/Dzień</t>
   </si>
   <si>
+    <t>Programowanie imperatywne / 11k2 2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t>Komunikacja i techniki zarządzania / 11k1 3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t>Algebra / 11k1 1 Irene Berends  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wychowanie fizyczne 3 / 12k1  1 Irene Berends  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przedmiot obieralny 1 / 12k2  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technika cyfrowa / 12k1  1 Irene Berends  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projektowanie systemów informatycznych / 12k1  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t>Wstęp do informatyki / 11k1 1 Irene Berends  </t>
+  </si>
+  <si>
+    <t>Wprowadzenie do systemu UNIX / 11k1 2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t>Analiza matematyczna 1 / 11k1 2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programowanie funkcyjne / 12k1  1 Irene Berends  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Metody obliczeniowe w nauce i technice 1 / 12k1  1 Irene Berends  </t>
   </si>
   <si>
+    <t>Wychowanie fizyczne 2 / 11k2 2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t>Asemblery / 11k2 3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t>Logika matematyczna w informatyce / 11k2 1 Irene Berends  </t>
+  </si>
+  <si>
+    <t>Fizyka 1 / 11k1 2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t>Matematyka dyskretna / 11k1 2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t>Fizyka 2 / 11k2 1 Irene Berends  </t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przedmiot obieralny 2 / 12k2  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazy danych / 12k2  1 Irene Berends  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systemy operacyjne / 12k2  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t>Analiza matematyczna 2 / 11k2 2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t>Podstawy elektroniki / 11k2 1 Irene Berends  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przedmiot obieralny 3 / 12k2  3 Ella Cutlip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technika mikroprocesorowa / 12k2  2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statystyka matematyczna / 12k2  1 Irene Berends  </t>
+  </si>
+  <si>
+    <t>Ochrona własności intelektualnej / 11k1 2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t>Algorytmy i struktury danych / 11k2 2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programowanie obiektowe / 12k1  2 Josphine Lebsock  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Równania różniczkowe i różnicowe / 12k1  3 Ella Cutlip  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Technologie obiektowe 1 / 12k2  3 Ella Cutlip  </t>
   </si>
   <si>
-    <t>Programowanie imperatywne / 11k2 2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t>Wstęp do informatyki / 11k1 1 Irene Berends  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przedmiot obieralny 1 / 12k2  3 Ella Cutlip  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Podstawy baz danych / 12k1  3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t>Analiza matematyczna 1 / 11k1 2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statystyka matematyczna / 12k2  1 Irene Berends  </t>
-  </si>
-  <si>
-    <t>Logika matematyczna w informatyce / 11k2 1 Irene Berends  </t>
-  </si>
-  <si>
-    <t>Komunikacja i techniki zarządzania / 11k1 3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technika mikroprocesorowa / 12k2  2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Równania różniczkowe i różnicowe / 12k1  3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przedmiot obieralny 2 / 12k2  3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t>Algorytmy i struktury danych / 11k2 2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technika cyfrowa / 12k1  1 Irene Berends  </t>
-  </si>
-  <si>
-    <t>Podstawy elektroniki / 11k2 1 Irene Berends  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Systemy operacyjne / 12k2  3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>Fizyka 2 / 11k2 1 Irene Berends  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programowanie obiektowe / 12k1  2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wychowanie fizyczne 3 / 12k1  1 Irene Berends  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projektowanie systemów informatycznych / 12k1  3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Programowanie funkcyjne / 12k1  1 Irene Berends  </t>
-  </si>
-  <si>
-    <t>Fizyka 1 / 11k1 2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Przedmiot obieralny 3 / 12k2  3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t>Wychowanie fizyczne 2 / 11k2 2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t>Analiza matematyczna 2 / 11k2 2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t>Algebra / 11k1 1 Irene Berends  </t>
-  </si>
-  <si>
-    <t>Asemblery / 11k2 3 Ella Cutlip  </t>
-  </si>
-  <si>
-    <t>Ochrona własności intelektualnej / 11k1 2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t>Wprowadzenie do systemu UNIX / 11k1 2 Josphine Lebsock  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bazy danych / 12k2  1 Irene Berends  </t>
-  </si>
-  <si>
-    <t>Matematyka dyskretna / 11k1 2 Josphine Lebsock  </t>
   </si>
 </sst>
 </file>
@@ -169,11 +169,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.2767210006714" customWidth="1"/>
-    <col min="2" max="2" width="45.978443145752" customWidth="1"/>
+    <col min="2" max="2" width="55.8551139831543" customWidth="1"/>
     <col min="3" max="3" width="53.7445335388184" customWidth="1"/>
-    <col min="4" max="4" width="53.9471015930176" customWidth="1"/>
+    <col min="4" max="4" width="50.7704811096191" customWidth="1"/>
     <col min="5" max="5" width="59.4736976623535" customWidth="1"/>
-    <col min="6" max="6" width="49.2880592346191" customWidth="1"/>
+    <col min="6" max="6" width="53.9471015930176" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -205,29 +205,29 @@
       <c r="A3" s="0">
         <v>7</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>2</v>
+      </c>
       <c r="E3" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -235,18 +235,18 @@
       <c r="A6" s="0">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
         <v>11</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -254,26 +254,26 @@
       <c r="A8" s="0">
         <v>12</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
         <v>13</v>
       </c>
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
         <v>14</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="0" t="s">
+      <c r="E10" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -281,10 +281,10 @@
       <c r="A11" s="0">
         <v>15</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="E11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>15</v>
       </c>
     </row>
@@ -292,13 +292,16 @@
       <c r="A12" s="0">
         <v>16</v>
       </c>
+      <c r="F12" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
         <v>17</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>16</v>
+      <c r="E13" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -306,15 +309,15 @@
         <v>18</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -341,32 +344,35 @@
       <c r="A18" s="0">
         <v>7</v>
       </c>
+      <c r="D18" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
         <v>8</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>20</v>
+      <c r="D19" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
         <v>9</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>21</v>
+      <c r="C20" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
         <v>10</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>22</v>
-      </c>
       <c r="E21" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -374,13 +380,10 @@
         <v>11</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -392,30 +395,21 @@
       <c r="A24" s="0">
         <v>13</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>27</v>
+      <c r="D24" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
         <v>14</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
         <v>15</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="C26" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27">
@@ -423,23 +417,29 @@
         <v>16</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
         <v>17</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>34</v>
+      <c r="C28" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
         <v>18</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
